--- a/mfa/S_cerevisiae/run_files/Plim__D_0_16/scGEM_Plim__D_0_16_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Plim__D_0_16/scGEM_Plim__D_0_16_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426968 ala__L_c + 0.168690 arg__L_c + 0.202777 asn__L_c + 0.202777 asp__L_c + 0.006118 cys__L_c + 0.338253 gln__L_c + 0.338253 glu__L_c + 0.388510 gly_c + 0.084345 his__L_c + 0.257404 ile__L_c + 0.350053 leu__L_c + 0.287122 lys__L_c + 0.049820 met__L_c + 0.164319 phe__L_c + 0.184422 pro__L_c + 0.232931 ser__L_c + 0.243420 thr__L_c + 0.028406 trp__L_c + 0.085656 tyr__L_c + 0.320335 val__L_c + 0.583507 mannan_c + 0.905478 13BDglucan_c + 0.238284 16BDglucan_c + 0.021408 chtn_c + 0.436544 glycogen_c + 0.021882 tre_c + 0.003475 ergstest_c + 0.013572 ergst_c + 0.003528 pail_c + 0.013163 pc_c + 0.003538 pe_c + 0.003038 ps_c + 0.003501 tag_c + 0.001963 ipcbiom_c + 0.000756 ffabiom_c + 0.048600 ctp_c + 0.050014 gtp_c + 0.065127 utp_c + 0.003354 datp_c + 0.002264 dctp_c + 0.002264 dgtp_c + 0.003354 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.595449 atp_c + 93.824273 h2o_c --&gt; 4.360581 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.585570 ppi_c</t>
+    <t xml:space="preserve">0.426968 ala__L_c + 0.168690 arg__L_c + 0.202777 asn__L_c + 0.202777 asp__L_c + 0.006118 cys__L_c + 0.338253 gln__L_c + 0.338253 glu__L_c + 0.388510 gly_c + 0.084345 his__L_c + 0.257404 ile__L_c + 0.350053 leu__L_c + 0.287122 lys__L_c + 0.049820 met__L_c + 0.164319 phe__L_c + 0.184422 pro__L_c + 0.232931 ser__L_c + 0.243420 thr__L_c + 0.028406 trp__L_c + 0.085656 tyr__L_c + 0.320335 val__L_c + 0.583507 mannan_c + 0.905478 13BDglucan_c + 0.238284 16BDglucan_c + 0.021408 chtn_c + 0.436544 glycogen_c + 0.021882 tre_c + 0.003475 ergstest_c + 0.013572 ergst_c + 0.003528 pail_c + 0.013163 pc_c + 0.003538 pe_c + 0.003038 ps_c + 0.003501 tag_c + 0.001963 ipcbiom_c + 0.000756 ffabiom_c + 0.048600 ctp_c + 0.050014 gtp_c + 0.065127 utp_c + 0.003354 datp_c + 0.002264 dctp_c + 0.002264 dgtp_c + 0.003354 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.873537 atp_c + 135.102361 h2o_c --&gt; 4.360581 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.585570 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14672,10 +14672,10 @@
   </sheetPr>
   <dimension ref="A1:N568"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A568" activeCellId="0" sqref="A568"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33422,7 +33422,7 @@
   </sheetPr>
   <dimension ref="A1:L484"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A484" activeCellId="0" sqref="A484"/>
